--- a/biology/Zoologie/Eubranchipus_grubii/Eubranchipus_grubii.xlsx
+++ b/biology/Zoologie/Eubranchipus_grubii/Eubranchipus_grubii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eubranchipus grubii, le branchipe (ou eubranchipe) de Grube, appartient à l'ordre des Anostraca (crustacés branchiopodes) et à la famille des Chirocephalidae. L'ordre des Anostraca (avec les daphnies et les triops) constitue l'un des taxons les plus représentatifs des mares et eaux temporaires.
 </t>
@@ -511,7 +523,9 @@
           <t>Biogéographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est présente en Europe centrale et septentrionale, en Asie septentrionale. En France les stations connues se situent en Alsace et en Lorraine, ainsi que dans l'Ain à la frontière suisse.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce crustacé sans carapace ne dépasse que rarement 25 mm de longueur (longueur maximale : 33 mm). Il nage sur le dos. La couleur va du jaune-rouge au rouge foncé mais, sous l'influence de l'alimentation, elle peut varier du blanc translucide au gris, au bleu ou au vert. Sa tête porte des yeux pédonculés et deux paires d'antennes. Le thorax porte onze paires de pattes. L'abdomen (improprement appelé queue) se termine par deux appendices (furcas) en forme de fourche. Chez le mâle, la deuxième paire d'antennes est plus développée que chez la femelle, et porte à sa base un appendice denté. La femelle porte ses œufs dans une poche ovale entre les premiers segments de l'abdomen. Ils tombent au fond de l'eau où ils restent jusqu'à l'éclosion.
 </t>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mares temporaires des forêts de feuillus sont le milieu de prédilection de l'espèce. La saison sèche est passée dans le sédiment sous forme d'œufs de résistance ou cystes. Le milieu est remis en eau en automne par les pluies ou la remontée de la nappe phréatique. Les cystes ont besoin d'une période de gel pour arriver à maturité. C'est l'augmentation du taux de dioxyde de carbone qui accompagne le dégel qui déclenche l'éclosion[1], de la fin d'automne jusqu'au début du printemps. L'animal est ensuite observable jusqu'à ce que la mare s'assèche ou que l'augmentation des températures provoque une baisse de l'oxygène dissous, au plus tard en fin de printemps. Les substances chimiques comme les nitrates, ou un plancton trop rare sont nocives à l'éclosion et au développement[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mares temporaires des forêts de feuillus sont le milieu de prédilection de l'espèce. La saison sèche est passée dans le sédiment sous forme d'œufs de résistance ou cystes. Le milieu est remis en eau en automne par les pluies ou la remontée de la nappe phréatique. Les cystes ont besoin d'une période de gel pour arriver à maturité. C'est l'augmentation du taux de dioxyde de carbone qui accompagne le dégel qui déclenche l'éclosion, de la fin d'automne jusqu'au début du printemps. L'animal est ensuite observable jusqu'à ce que la mare s'assèche ou que l'augmentation des températures provoque une baisse de l'oxygène dissous, au plus tard en fin de printemps. Les substances chimiques comme les nitrates, ou un plancton trop rare sont nocives à l'éclosion et au développement.
 Il se nourrit du plancton et des particules en suspension dans l'eau.
 </t>
         </is>
